--- a/biology/Mycologie/Morchella_bicostata/Morchella_bicostata.xlsx
+++ b/biology/Mycologie/Morchella_bicostata/Morchella_bicostata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morchella becostata, de son nom vernaculaire français : la morille bicôtelée, est une espèce de champignons ascomycètes de Chine, excellent comestible, du genre Morchella dans la famille des Morchellaceae dans l'ordre des Pezizales.
 </t>
@@ -513,9 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial
-Morchella bicostata J.-Y. Chen &amp; P.-G. Liu, 2005
-Synonymes</t>
+          <t>Nom binomial</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Morchella bicostata J.-Y. Chen &amp; P.-G. Liu, 2005
+</t>
         </is>
       </c>
     </row>
@@ -543,7 +560,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore
 Stipe
@@ -578,7 +597,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tibet, Chine Sud Ouest, connue au Tibet comme le champignon du coucou "khukhu Shamo", parfois aussi prononcé comme "Gugu Shamo" qui fait allusion à la saison de récolte, qui coïncide avec le retour du coucou.
 </t>
